--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.7 orgtree position & rank/2.0_mismatch_군및기타_1_outgov_JR.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.7 orgtree position & rank/2.0_mismatch_군및기타_1_outgov_JR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.7 orgtree position &amp; rank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBF5D9D-C941-4AED-8E78-CF50A9488B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B02767-1A5F-4530-861A-12B9BE9CB39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2700,10 +2700,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Changre_LinkToNextOrg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Change_LinkToNextYear</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3337,6 +3333,10 @@
   </si>
   <si>
     <t>조국통일문제연구소 연구원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change_LinkToNextOrg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3756,9 +3756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V530"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E485" sqref="E485"/>
+      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17"/>
@@ -3841,10 +3841,10 @@
         <v>890</v>
       </c>
       <c r="T1" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>891</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>892</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>18</v>
@@ -3928,7 +3928,7 @@
         <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>23</v>
@@ -4071,7 +4071,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>74</v>
@@ -4126,10 +4126,10 @@
         <v>21</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>77</v>
@@ -4155,7 +4155,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>90</v>
@@ -4187,7 +4187,7 @@
         <v>269</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>80</v>
@@ -4312,10 +4312,10 @@
         <v>21</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>77</v>
@@ -4338,7 +4338,7 @@
         <v>21</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>87</v>
@@ -4457,10 +4457,10 @@
         <v>21</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>122</v>
@@ -4489,7 +4489,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>121</v>
@@ -4521,10 +4521,10 @@
         <v>21</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>813</v>
@@ -4539,7 +4539,7 @@
         <v>877</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -4556,7 +4556,7 @@
         <v>58</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>146</v>
@@ -4582,10 +4582,10 @@
         <v>21</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>146</v>
@@ -4600,10 +4600,10 @@
         <v>877</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -4617,7 +4617,7 @@
         <v>21</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>150</v>
@@ -4635,10 +4635,10 @@
         <v>877</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -4652,10 +4652,10 @@
         <v>21</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>146</v>
@@ -4681,7 +4681,7 @@
         <v>21</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>154</v>
@@ -4710,10 +4710,10 @@
         <v>21</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>145</v>
@@ -4742,10 +4742,10 @@
         <v>21</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>146</v>
@@ -4803,7 +4803,7 @@
         <v>58</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>159</v>
@@ -4829,10 +4829,10 @@
         <v>21</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>159</v>
@@ -4858,7 +4858,7 @@
         <v>21</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>158</v>
@@ -4919,7 +4919,7 @@
         <v>58</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>167</v>
@@ -4948,7 +4948,7 @@
         <v>43</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>167</v>
@@ -4963,7 +4963,7 @@
         <v>877</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="Q37" s="5" t="s">
         <v>166</v>
@@ -4998,7 +4998,7 @@
         <v>877</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="Q38" s="5" t="s">
         <v>166</v>
@@ -5018,7 +5018,7 @@
         <v>31</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>180</v>
@@ -5050,10 +5050,10 @@
         <v>21</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>194</v>
@@ -5085,7 +5085,7 @@
         <v>58</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>197</v>
@@ -5143,7 +5143,7 @@
         <v>58</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>197</v>
@@ -5169,10 +5169,10 @@
         <v>21</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>197</v>
@@ -5198,7 +5198,7 @@
         <v>21</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>121</v>
@@ -5227,10 +5227,10 @@
         <v>21</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>197</v>
@@ -5256,7 +5256,7 @@
         <v>21</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>202</v>
@@ -5285,10 +5285,10 @@
         <v>21</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>197</v>
@@ -5317,7 +5317,7 @@
         <v>58</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>210</v>
@@ -5332,7 +5332,7 @@
         <v>877</v>
       </c>
       <c r="V49" s="5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -5346,10 +5346,10 @@
         <v>21</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>210</v>
@@ -5378,10 +5378,10 @@
         <v>214</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>210</v>
@@ -5407,10 +5407,10 @@
         <v>21</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>210</v>
@@ -5425,10 +5425,10 @@
         <v>877</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="Q52" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -5442,7 +5442,7 @@
         <v>21</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>216</v>
@@ -5460,10 +5460,10 @@
         <v>877</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="Q53" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -5477,10 +5477,10 @@
         <v>21</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>210</v>
@@ -5506,7 +5506,7 @@
         <v>21</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>87</v>
@@ -5535,7 +5535,7 @@
         <v>21</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>223</v>
@@ -5564,10 +5564,10 @@
         <v>21</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>210</v>
@@ -5596,7 +5596,7 @@
         <v>69</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>227</v>
@@ -5611,10 +5611,10 @@
         <v>877</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="Q58" s="5" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -5628,10 +5628,10 @@
         <v>21</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>230</v>
@@ -5657,7 +5657,7 @@
         <v>21</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>233</v>
@@ -5689,7 +5689,7 @@
         <v>58</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>427</v>
@@ -5704,7 +5704,7 @@
         <v>877</v>
       </c>
       <c r="V61" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -5721,7 +5721,7 @@
         <v>58</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>427</v>
@@ -5736,7 +5736,7 @@
         <v>877</v>
       </c>
       <c r="V62" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -5820,10 +5820,10 @@
         <v>21</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>430</v>
@@ -5849,10 +5849,10 @@
         <v>21</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>430</v>
@@ -5878,10 +5878,10 @@
         <v>21</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>430</v>
@@ -5907,10 +5907,10 @@
         <v>21</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>430</v>
@@ -6032,7 +6032,7 @@
         <v>21</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>158</v>
@@ -6061,7 +6061,7 @@
         <v>21</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>158</v>
@@ -6090,10 +6090,10 @@
         <v>21</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>453</v>
@@ -6125,7 +6125,7 @@
         <v>69</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>453</v>
@@ -6140,22 +6140,22 @@
         <v>877</v>
       </c>
       <c r="P75" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="Q75" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="S75" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="T75" s="5" t="s">
         <v>1022</v>
-      </c>
-      <c r="S75" s="5" t="s">
-        <v>935</v>
-      </c>
-      <c r="T75" s="5" t="s">
-        <v>1023</v>
       </c>
       <c r="U75" s="5">
         <v>1980</v>
       </c>
       <c r="V75" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -6175,7 +6175,7 @@
         <v>69</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>453</v>
@@ -6190,22 +6190,22 @@
         <v>877</v>
       </c>
       <c r="P76" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="Q76" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="S76" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="T76" s="5" t="s">
         <v>1022</v>
-      </c>
-      <c r="S76" s="5" t="s">
-        <v>935</v>
-      </c>
-      <c r="T76" s="5" t="s">
-        <v>1023</v>
       </c>
       <c r="U76" s="5">
         <v>1980</v>
       </c>
       <c r="V76" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="77" spans="1:22">
@@ -6222,7 +6222,7 @@
         <v>43</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>453</v>
@@ -6237,10 +6237,10 @@
         <v>877</v>
       </c>
       <c r="P77" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="Q77" s="5" t="s">
         <v>950</v>
-      </c>
-      <c r="Q77" s="5" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="78" spans="1:22">
@@ -6269,10 +6269,10 @@
         <v>877</v>
       </c>
       <c r="P78" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="Q78" s="5" t="s">
         <v>950</v>
-      </c>
-      <c r="Q78" s="5" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="79" spans="1:22">
@@ -6362,10 +6362,10 @@
         <v>21</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>469</v>
@@ -6391,7 +6391,7 @@
         <v>21</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>471</v>
@@ -6420,10 +6420,10 @@
         <v>21</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>469</v>
@@ -6449,7 +6449,7 @@
         <v>21</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>476</v>
@@ -6478,7 +6478,7 @@
         <v>21</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>284</v>
@@ -6507,7 +6507,7 @@
         <v>21</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>284</v>
@@ -6539,7 +6539,7 @@
         <v>58</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>469</v>
@@ -6554,10 +6554,10 @@
         <v>877</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -6577,7 +6577,7 @@
         <v>269</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>518</v>
@@ -6603,7 +6603,7 @@
         <v>21</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>302</v>
@@ -6632,7 +6632,7 @@
         <v>21</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>302</v>
@@ -6661,7 +6661,7 @@
         <v>21</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>302</v>
@@ -6690,7 +6690,7 @@
         <v>21</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>292</v>
@@ -6722,10 +6722,10 @@
         <v>21</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>521</v>
@@ -6757,7 +6757,7 @@
         <v>58</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>561</v>
@@ -6783,10 +6783,10 @@
         <v>21</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>561</v>
@@ -6812,7 +6812,7 @@
         <v>21</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>563</v>
@@ -6841,10 +6841,10 @@
         <v>21</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>561</v>
@@ -6870,7 +6870,7 @@
         <v>21</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>566</v>
@@ -6899,7 +6899,7 @@
         <v>21</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>292</v>
@@ -6928,7 +6928,7 @@
         <v>21</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>292</v>
@@ -6957,7 +6957,7 @@
         <v>21</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>292</v>
@@ -6986,7 +6986,7 @@
         <v>21</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>292</v>
@@ -7015,10 +7015,10 @@
         <v>21</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>561</v>
@@ -7044,7 +7044,7 @@
         <v>21</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>520</v>
@@ -7091,10 +7091,10 @@
         <v>877</v>
       </c>
       <c r="P105" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="Q105" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="106" spans="1:22">
@@ -7108,7 +7108,7 @@
         <v>21</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>292</v>
@@ -7169,7 +7169,7 @@
         <v>58</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>33</v>
@@ -7198,7 +7198,7 @@
         <v>58</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>33</v>
@@ -7213,12 +7213,12 @@
         <v>877</v>
       </c>
       <c r="V109" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>201</v>
@@ -7230,7 +7230,7 @@
         <v>58</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>33</v>
@@ -7276,7 +7276,7 @@
     </row>
     <row r="112" spans="1:22">
       <c r="A112" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>313</v>
@@ -7288,7 +7288,7 @@
         <v>58</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H112" s="4" t="s">
         <v>33</v>
@@ -7346,7 +7346,7 @@
         <v>58</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H114" s="4" t="s">
         <v>33</v>
@@ -7375,7 +7375,7 @@
         <v>58</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H115" s="4" t="s">
         <v>33</v>
@@ -7520,7 +7520,7 @@
         <v>58</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H120" s="4" t="s">
         <v>33</v>
@@ -7578,7 +7578,7 @@
         <v>58</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H122" s="4" t="s">
         <v>33</v>
@@ -7654,7 +7654,7 @@
         <v>877</v>
       </c>
       <c r="V124" s="5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="125" spans="1:22">
@@ -8226,7 +8226,7 @@
         <v>138</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H143" s="4" t="s">
         <v>33</v>
@@ -8241,10 +8241,10 @@
         <v>877</v>
       </c>
       <c r="P143" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="Q143" s="8" t="s">
         <v>1006</v>
-      </c>
-      <c r="Q143" s="8" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="144" spans="1:17">
@@ -8276,10 +8276,10 @@
         <v>877</v>
       </c>
       <c r="P144" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="Q144" s="8" t="s">
         <v>1006</v>
-      </c>
-      <c r="Q144" s="8" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="145" spans="1:15">
@@ -8567,7 +8567,7 @@
         <v>269</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>23</v>
@@ -8599,7 +8599,7 @@
         <v>269</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>23</v>
@@ -8660,7 +8660,7 @@
         <v>21</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>158</v>
@@ -9260,7 +9260,7 @@
         <v>367</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H174" s="4" t="s">
         <v>33</v>
@@ -9275,7 +9275,7 @@
         <v>877</v>
       </c>
       <c r="P174" s="5" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="175" spans="1:17">
@@ -9307,7 +9307,7 @@
         <v>877</v>
       </c>
       <c r="P175" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="Q175" s="5" t="s">
         <v>370</v>
@@ -9342,7 +9342,7 @@
         <v>877</v>
       </c>
       <c r="P176" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="Q176" s="5" t="s">
         <v>370</v>
@@ -9362,7 +9362,7 @@
         <v>43</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H177" s="4" t="s">
         <v>33</v>
@@ -9377,7 +9377,7 @@
         <v>877</v>
       </c>
       <c r="P177" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="Q177" s="5" t="s">
         <v>370</v>
@@ -9397,7 +9397,7 @@
         <v>106</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H178" s="4" t="s">
         <v>105</v>
@@ -9412,7 +9412,7 @@
         <v>877</v>
       </c>
       <c r="P178" s="5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="179" spans="1:21">
@@ -9426,7 +9426,7 @@
         <v>21</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>385</v>
@@ -9444,7 +9444,7 @@
         <v>877</v>
       </c>
       <c r="U179" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="180" spans="1:21">
@@ -9458,7 +9458,7 @@
         <v>21</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>385</v>
@@ -9476,7 +9476,7 @@
         <v>877</v>
       </c>
       <c r="U180" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="181" spans="1:21">
@@ -9493,7 +9493,7 @@
         <v>886</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H181" s="4" t="s">
         <v>692</v>
@@ -9548,10 +9548,10 @@
         <v>21</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H183" s="4" t="s">
         <v>692</v>
@@ -9577,7 +9577,7 @@
         <v>21</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>691</v>
@@ -9606,7 +9606,7 @@
         <v>21</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>385</v>
@@ -9624,7 +9624,7 @@
         <v>877</v>
       </c>
       <c r="U185" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="186" spans="1:21">
@@ -9638,7 +9638,7 @@
         <v>21</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F186" s="4" t="s">
         <v>385</v>
@@ -9656,7 +9656,7 @@
         <v>877</v>
       </c>
       <c r="U186" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="187" spans="1:21">
@@ -9673,7 +9673,7 @@
         <v>697</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F187" s="4" t="s">
         <v>385</v>
@@ -9691,7 +9691,7 @@
         <v>877</v>
       </c>
       <c r="U187" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="188" spans="1:21">
@@ -9705,7 +9705,7 @@
         <v>21</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>292</v>
@@ -9737,7 +9737,7 @@
         <v>21</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F189" s="4" t="s">
         <v>520</v>
@@ -9856,7 +9856,7 @@
         <v>21</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F193" s="4" t="s">
         <v>258</v>
@@ -9885,7 +9885,7 @@
         <v>21</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F194" s="4" t="s">
         <v>258</v>
@@ -9981,7 +9981,7 @@
         <v>31</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>23</v>
@@ -10028,7 +10028,7 @@
         <v>58</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H198" s="4" t="s">
         <v>726</v>
@@ -10086,7 +10086,7 @@
         <v>58</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H200" s="4" t="s">
         <v>726</v>
@@ -10112,10 +10112,10 @@
         <v>21</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H201" s="4" t="s">
         <v>726</v>
@@ -10141,7 +10141,7 @@
         <v>21</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F202" s="4" t="s">
         <v>777</v>
@@ -10167,7 +10167,7 @@
         <v>21</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F203" s="4" t="s">
         <v>777</v>
@@ -10196,10 +10196,10 @@
         <v>21</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H204" s="4" t="s">
         <v>726</v>
@@ -10225,7 +10225,7 @@
         <v>21</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F205" s="4" t="s">
         <v>734</v>
@@ -10254,10 +10254,10 @@
         <v>21</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H206" s="4" t="s">
         <v>726</v>
@@ -10283,7 +10283,7 @@
         <v>21</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F207" s="4" t="s">
         <v>737</v>
@@ -10312,10 +10312,10 @@
         <v>21</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H208" s="4" t="s">
         <v>726</v>
@@ -10341,10 +10341,10 @@
         <v>21</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H209" s="4" t="s">
         <v>726</v>
@@ -10370,7 +10370,7 @@
         <v>21</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F210" s="4" t="s">
         <v>741</v>
@@ -10399,10 +10399,10 @@
         <v>21</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H211" s="4" t="s">
         <v>726</v>
@@ -10428,7 +10428,7 @@
         <v>21</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>744</v>
@@ -10457,10 +10457,10 @@
         <v>21</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H213" s="4" t="s">
         <v>726</v>
@@ -10486,7 +10486,7 @@
         <v>21</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>747</v>
@@ -10512,7 +10512,7 @@
         <v>21</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F215" s="4" t="s">
         <v>747</v>
@@ -10541,7 +10541,7 @@
         <v>21</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F216" s="4" t="s">
         <v>193</v>
@@ -10570,10 +10570,10 @@
         <v>21</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H217" s="4" t="s">
         <v>726</v>
@@ -10599,7 +10599,7 @@
         <v>21</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F218" s="4" t="s">
         <v>751</v>
@@ -10628,10 +10628,10 @@
         <v>21</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H219" s="4" t="s">
         <v>726</v>
@@ -10657,10 +10657,10 @@
         <v>21</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H220" s="4" t="s">
         <v>726</v>
@@ -10686,7 +10686,7 @@
         <v>21</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F221" s="4" t="s">
         <v>758</v>
@@ -10706,7 +10706,7 @@
     </row>
     <row r="222" spans="1:17">
       <c r="A222" s="4" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>262</v>
@@ -10715,10 +10715,10 @@
         <v>21</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H222" s="4" t="s">
         <v>726</v>
@@ -10736,7 +10736,7 @@
         <v>730</v>
       </c>
       <c r="Q222" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="223" spans="1:17">
@@ -10750,7 +10750,7 @@
         <v>21</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F223" s="4" t="s">
         <v>760</v>
@@ -10771,7 +10771,7 @@
         <v>730</v>
       </c>
       <c r="Q223" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="224" spans="1:17">
@@ -10785,7 +10785,7 @@
         <v>21</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F224" s="4" t="s">
         <v>730</v>
@@ -10809,7 +10809,7 @@
         <v>730</v>
       </c>
       <c r="Q224" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="225" spans="1:17">
@@ -10823,7 +10823,7 @@
         <v>21</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F225" s="4" t="s">
         <v>730</v>
@@ -10847,7 +10847,7 @@
         <v>730</v>
       </c>
       <c r="Q225" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="226" spans="1:17">
@@ -10861,10 +10861,10 @@
         <v>21</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H226" s="4" t="s">
         <v>726</v>
@@ -10890,10 +10890,10 @@
         <v>21</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H227" s="4" t="s">
         <v>726</v>
@@ -10919,7 +10919,7 @@
         <v>21</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F228" s="4" t="s">
         <v>765</v>
@@ -10948,10 +10948,10 @@
         <v>21</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H229" s="4" t="s">
         <v>726</v>
@@ -10977,7 +10977,7 @@
         <v>21</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F230" s="4" t="s">
         <v>768</v>
@@ -11006,10 +11006,10 @@
         <v>21</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H231" s="4" t="s">
         <v>726</v>
@@ -11035,7 +11035,7 @@
         <v>21</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F232" s="4" t="s">
         <v>775</v>
@@ -11064,7 +11064,7 @@
         <v>21</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F233" s="4" t="s">
         <v>206</v>
@@ -11093,7 +11093,7 @@
         <v>21</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F234" s="4" t="s">
         <v>206</v>
@@ -11119,7 +11119,7 @@
         <v>21</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F235" s="4" t="s">
         <v>206</v>
@@ -11148,10 +11148,10 @@
         <v>21</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H236" s="4" t="s">
         <v>726</v>
@@ -11177,7 +11177,7 @@
         <v>21</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F237" s="4" t="s">
         <v>233</v>
@@ -11206,7 +11206,7 @@
         <v>21</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F238" s="4" t="s">
         <v>233</v>
@@ -11235,7 +11235,7 @@
         <v>21</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>233</v>
@@ -11261,7 +11261,7 @@
         <v>21</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F240" s="4" t="s">
         <v>233</v>
@@ -11293,10 +11293,10 @@
         <v>782</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H241" s="4" t="s">
         <v>726</v>
@@ -11322,10 +11322,10 @@
         <v>21</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G242" s="4" t="s">
         <v>725</v>
@@ -11346,7 +11346,7 @@
         <v>728</v>
       </c>
       <c r="Q242" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="243" spans="1:17">
@@ -11360,10 +11360,10 @@
         <v>21</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G243" s="4" t="s">
         <v>725</v>
@@ -11392,7 +11392,7 @@
         <v>21</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F244" s="4" t="s">
         <v>728</v>
@@ -11421,10 +11421,10 @@
         <v>21</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H245" s="4" t="s">
         <v>726</v>
@@ -11453,7 +11453,7 @@
         <v>58</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H246" s="4" t="s">
         <v>793</v>
@@ -11508,7 +11508,7 @@
         <v>21</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F248" s="4" t="s">
         <v>121</v>
@@ -11537,7 +11537,7 @@
         <v>21</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F249" s="4" t="s">
         <v>121</v>
@@ -11566,7 +11566,7 @@
         <v>21</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>741</v>
@@ -11595,7 +11595,7 @@
         <v>21</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>747</v>
@@ -11624,7 +11624,7 @@
         <v>21</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F252" s="4" t="s">
         <v>747</v>
@@ -11653,7 +11653,7 @@
         <v>21</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F253" s="4" t="s">
         <v>279</v>
@@ -11682,7 +11682,7 @@
         <v>21</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F254" s="4" t="s">
         <v>279</v>
@@ -11711,10 +11711,10 @@
         <v>21</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H255" s="4" t="s">
         <v>793</v>
@@ -11740,7 +11740,7 @@
         <v>21</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F256" s="4" t="s">
         <v>803</v>
@@ -11769,7 +11769,7 @@
         <v>21</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F257" s="4" t="s">
         <v>763</v>
@@ -11798,7 +11798,7 @@
         <v>21</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F258" s="4" t="s">
         <v>763</v>
@@ -11827,7 +11827,7 @@
         <v>21</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F259" s="4" t="s">
         <v>202</v>
@@ -11856,7 +11856,7 @@
         <v>21</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F260" s="4" t="s">
         <v>202</v>
@@ -11885,7 +11885,7 @@
         <v>21</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F261" s="4" t="s">
         <v>447</v>
@@ -11914,7 +11914,7 @@
         <v>21</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F262" s="4" t="s">
         <v>449</v>
@@ -11943,7 +11943,7 @@
         <v>21</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F263" s="4" t="s">
         <v>445</v>
@@ -11975,7 +11975,7 @@
         <v>58</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H264" s="4" t="s">
         <v>177</v>
@@ -11990,7 +11990,7 @@
         <v>877</v>
       </c>
       <c r="V264" s="5" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="265" spans="1:22">
@@ -12004,7 +12004,7 @@
         <v>21</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F265" s="4" t="s">
         <v>768</v>
@@ -12100,7 +12100,7 @@
         <v>58</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H268" s="4" t="s">
         <v>826</v>
@@ -12129,7 +12129,7 @@
         <v>58</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H269" s="4" t="s">
         <v>826</v>
@@ -12158,7 +12158,7 @@
         <v>58</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H270" s="4" t="s">
         <v>826</v>
@@ -12216,7 +12216,7 @@
         <v>58</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H272" s="4" t="s">
         <v>826</v>
@@ -12242,7 +12242,7 @@
         <v>21</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F273" s="4" t="s">
         <v>385</v>
@@ -12260,7 +12260,7 @@
         <v>877</v>
       </c>
       <c r="U273" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="274" spans="1:21">
@@ -12306,7 +12306,7 @@
         <v>21</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F275" s="4" t="s">
         <v>412</v>
@@ -12335,7 +12335,7 @@
         <v>21</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F276" s="4" t="s">
         <v>412</v>
@@ -12364,7 +12364,7 @@
         <v>21</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F277" s="4" t="s">
         <v>479</v>
@@ -12393,7 +12393,7 @@
         <v>21</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F278" s="4" t="s">
         <v>414</v>
@@ -12422,10 +12422,10 @@
         <v>21</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H279" s="4" t="s">
         <v>711</v>
@@ -12625,7 +12625,7 @@
         <v>21</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F286" s="4" t="s">
         <v>133</v>
@@ -12724,10 +12724,10 @@
         <v>21</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F289" s="4" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H289" s="4" t="s">
         <v>856</v>
@@ -12753,7 +12753,7 @@
         <v>21</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F290" s="4" t="s">
         <v>859</v>
@@ -12788,7 +12788,7 @@
         <v>43</v>
       </c>
       <c r="F291" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H291" s="4" t="s">
         <v>856</v>
@@ -12878,7 +12878,7 @@
         <v>58</v>
       </c>
       <c r="F294" s="4" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H294" s="4" t="s">
         <v>317</v>
@@ -13006,7 +13006,7 @@
         <v>269</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G298" s="4" t="s">
         <v>83</v>
@@ -13572,10 +13572,10 @@
         <v>21</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F314" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H314" s="4" t="s">
         <v>259</v>
@@ -13601,7 +13601,7 @@
         <v>21</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F315" s="4" t="s">
         <v>258</v>
@@ -13621,7 +13621,7 @@
     </row>
     <row r="316" spans="1:18">
       <c r="A316" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B316" s="4" t="s">
         <v>149</v>
@@ -13633,7 +13633,7 @@
         <v>269</v>
       </c>
       <c r="F316" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H316" s="4" t="s">
         <v>263</v>
@@ -13651,7 +13651,7 @@
         <v>268</v>
       </c>
       <c r="Q316" s="5" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -13665,7 +13665,7 @@
         <v>21</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F317" s="4" t="s">
         <v>212</v>
@@ -13694,7 +13694,7 @@
         <v>21</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F318" s="4" t="s">
         <v>212</v>
@@ -13723,7 +13723,7 @@
         <v>21</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F319" s="4" t="s">
         <v>266</v>
@@ -13752,7 +13752,7 @@
         <v>21</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F320" s="4" t="s">
         <v>266</v>
@@ -13781,10 +13781,10 @@
         <v>21</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F321" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G321" s="4" t="s">
         <v>134</v>
@@ -13816,10 +13816,10 @@
         <v>273</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F322" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="G322" s="4" t="s">
         <v>275</v>
@@ -13848,7 +13848,7 @@
         <v>21</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F323" s="4" t="s">
         <v>274</v>
@@ -13883,7 +13883,7 @@
         <v>58</v>
       </c>
       <c r="F324" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H324" s="4" t="s">
         <v>285</v>
@@ -13898,7 +13898,7 @@
         <v>878</v>
       </c>
       <c r="V324" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="325" spans="1:22">
@@ -13930,7 +13930,7 @@
         <v>878</v>
       </c>
       <c r="V325" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="326" spans="1:22">
@@ -13944,10 +13944,10 @@
         <v>21</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F326" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H326" s="4" t="s">
         <v>285</v>
@@ -13973,7 +13973,7 @@
         <v>21</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F327" s="4" t="s">
         <v>302</v>
@@ -14002,10 +14002,10 @@
         <v>21</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F328" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H328" s="4" t="s">
         <v>294</v>
@@ -14031,7 +14031,7 @@
         <v>21</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F329" s="4" t="s">
         <v>302</v>
@@ -14060,7 +14060,7 @@
         <v>21</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F330" s="4" t="s">
         <v>302</v>
@@ -14089,7 +14089,7 @@
         <v>21</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F331" s="4" t="s">
         <v>302</v>
@@ -14115,7 +14115,7 @@
         <v>21</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F332" s="4" t="s">
         <v>302</v>
@@ -14144,10 +14144,10 @@
         <v>21</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F333" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G333" s="4" t="s">
         <v>293</v>
@@ -14176,7 +14176,7 @@
         <v>21</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F334" s="4" t="s">
         <v>292</v>
@@ -14208,7 +14208,7 @@
         <v>21</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F335" s="4" t="s">
         <v>292</v>
@@ -14240,7 +14240,7 @@
         <v>21</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F336" s="4" t="s">
         <v>292</v>
@@ -14272,7 +14272,7 @@
         <v>21</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F337" s="4" t="s">
         <v>292</v>
@@ -14304,7 +14304,7 @@
         <v>21</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F338" s="4" t="s">
         <v>292</v>
@@ -14333,7 +14333,7 @@
         <v>21</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F339" s="4" t="s">
         <v>292</v>
@@ -14365,7 +14365,7 @@
         <v>69</v>
       </c>
       <c r="F340" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H340" s="4" t="s">
         <v>323</v>
@@ -14423,7 +14423,7 @@
         <v>43</v>
       </c>
       <c r="F342" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H342" s="4" t="s">
         <v>34</v>
@@ -14438,7 +14438,7 @@
         <v>878</v>
       </c>
       <c r="P342" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="Q342" s="5" t="s">
         <v>370</v>
@@ -14620,7 +14620,7 @@
     </row>
     <row r="349" spans="1:17">
       <c r="A349" s="4" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B349" s="4" t="s">
         <v>344</v>
@@ -14629,10 +14629,10 @@
         <v>21</v>
       </c>
       <c r="E349" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F349" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G349" s="4" t="s">
         <v>354</v>
@@ -14650,10 +14650,10 @@
         <v>878</v>
       </c>
       <c r="P349" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="Q349" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="350" spans="1:17">
@@ -14670,7 +14670,7 @@
         <v>58</v>
       </c>
       <c r="F350" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G350" s="4" t="s">
         <v>23</v>
@@ -14734,7 +14734,7 @@
         <v>58</v>
       </c>
       <c r="F352" s="4" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H352" s="4" t="s">
         <v>34</v>
@@ -14868,7 +14868,7 @@
         <v>878</v>
       </c>
       <c r="V356" s="5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="357" spans="1:22">
@@ -15762,10 +15762,10 @@
         <v>21</v>
       </c>
       <c r="E383" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F383" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H383" s="4" t="s">
         <v>386</v>
@@ -15780,7 +15780,7 @@
         <v>878</v>
       </c>
       <c r="U383" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="384" spans="1:21">
@@ -15794,7 +15794,7 @@
         <v>21</v>
       </c>
       <c r="E384" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F384" s="4" t="s">
         <v>385</v>
@@ -15812,7 +15812,7 @@
         <v>878</v>
       </c>
       <c r="U384" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="385" spans="1:21">
@@ -15826,7 +15826,7 @@
         <v>21</v>
       </c>
       <c r="E385" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F385" s="4" t="s">
         <v>385</v>
@@ -15844,7 +15844,7 @@
         <v>878</v>
       </c>
       <c r="U385" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="386" spans="1:21">
@@ -15893,7 +15893,7 @@
         <v>58</v>
       </c>
       <c r="F387" s="4" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H387" s="4" t="s">
         <v>178</v>
@@ -15922,7 +15922,7 @@
         <v>43</v>
       </c>
       <c r="F388" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H388" s="4" t="s">
         <v>409</v>
@@ -15977,10 +15977,10 @@
         <v>21</v>
       </c>
       <c r="E390" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F390" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H390" s="4" t="s">
         <v>409</v>
@@ -16006,7 +16006,7 @@
         <v>21</v>
       </c>
       <c r="E391" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F391" s="4" t="s">
         <v>414</v>
@@ -16035,7 +16035,7 @@
         <v>21</v>
       </c>
       <c r="E392" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F392" s="4" t="s">
         <v>414</v>
@@ -16207,7 +16207,7 @@
         <v>58</v>
       </c>
       <c r="F397" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H397" s="4" t="s">
         <v>318</v>
@@ -16515,7 +16515,7 @@
         <v>21</v>
       </c>
       <c r="E407" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F407" s="4" t="s">
         <v>414</v>
@@ -16547,7 +16547,7 @@
         <v>64</v>
       </c>
       <c r="F408" s="4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G408" s="4" t="s">
         <v>600</v>
@@ -16568,7 +16568,7 @@
         <v>599</v>
       </c>
       <c r="Q408" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="R408" s="5" t="s">
         <v>327</v>
@@ -16743,10 +16743,10 @@
         <v>21</v>
       </c>
       <c r="E413" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F413" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H413" s="4" t="s">
         <v>791</v>
@@ -16764,7 +16764,7 @@
         <v>790</v>
       </c>
       <c r="Q413" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -16778,10 +16778,10 @@
         <v>21</v>
       </c>
       <c r="E414" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F414" s="4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H414" s="4" t="s">
         <v>791</v>
@@ -17017,7 +17017,7 @@
         <v>31</v>
       </c>
       <c r="F421" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G421" s="4" t="s">
         <v>23</v>
@@ -17154,10 +17154,10 @@
         <v>21</v>
       </c>
       <c r="E425" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F425" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G425" s="4" t="s">
         <v>134</v>
@@ -17189,7 +17189,7 @@
         <v>58</v>
       </c>
       <c r="F426" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H426" s="4" t="s">
         <v>68</v>
@@ -17204,7 +17204,7 @@
         <v>879</v>
       </c>
       <c r="V426" s="5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="427" spans="1:22">
@@ -17236,7 +17236,7 @@
         <v>879</v>
       </c>
       <c r="V427" s="5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="428" spans="1:22">
@@ -17282,7 +17282,7 @@
         <v>31</v>
       </c>
       <c r="F429" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G429" s="4" t="s">
         <v>23</v>
@@ -17425,10 +17425,10 @@
         <v>21</v>
       </c>
       <c r="E433" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F433" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H433" s="4" t="s">
         <v>276</v>
@@ -17454,7 +17454,7 @@
         <v>21</v>
       </c>
       <c r="E434" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F434" s="4" t="s">
         <v>279</v>
@@ -17795,7 +17795,7 @@
         <v>58</v>
       </c>
       <c r="F444" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="G444" s="4" t="s">
         <v>23</v>
@@ -17827,7 +17827,7 @@
         <v>58</v>
       </c>
       <c r="F445" s="4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H445" s="4" t="s">
         <v>117</v>
@@ -17853,10 +17853,10 @@
         <v>21</v>
       </c>
       <c r="E446" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F446" s="4" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G446" s="4" t="s">
         <v>23</v>
@@ -17996,10 +17996,10 @@
         <v>21</v>
       </c>
       <c r="E450" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F450" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H450" s="4" t="s">
         <v>480</v>
@@ -18425,7 +18425,7 @@
         <v>58</v>
       </c>
       <c r="F462" s="4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H462" s="4" t="s">
         <v>496</v>
@@ -18900,10 +18900,10 @@
         <v>21</v>
       </c>
       <c r="E476" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F476" s="4" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G476" s="4" t="s">
         <v>528</v>
@@ -18932,7 +18932,7 @@
         <v>21</v>
       </c>
       <c r="E477" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F477" s="4" t="s">
         <v>527</v>
@@ -18964,7 +18964,7 @@
         <v>21</v>
       </c>
       <c r="E478" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F478" s="4" t="s">
         <v>527</v>
@@ -18996,7 +18996,7 @@
         <v>21</v>
       </c>
       <c r="E479" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F479" s="4" t="s">
         <v>527</v>
@@ -19066,7 +19066,7 @@
         <v>21</v>
       </c>
       <c r="E481" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F481" s="4" t="s">
         <v>292</v>
@@ -19095,7 +19095,7 @@
         <v>21</v>
       </c>
       <c r="E482" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F482" s="4" t="s">
         <v>292</v>
@@ -19124,7 +19124,7 @@
         <v>21</v>
       </c>
       <c r="E483" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F483" s="4" t="s">
         <v>302</v>
@@ -19153,7 +19153,7 @@
         <v>21</v>
       </c>
       <c r="E484" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F484" s="4" t="s">
         <v>302</v>
@@ -19173,7 +19173,7 @@
     </row>
     <row r="485" spans="1:15">
       <c r="A485" s="4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B485" s="4" t="s">
         <v>262</v>
@@ -19185,7 +19185,7 @@
         <v>58</v>
       </c>
       <c r="F485" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H485" s="4" t="s">
         <v>547</v>
@@ -19211,7 +19211,7 @@
         <v>21</v>
       </c>
       <c r="E486" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F486" s="4" t="s">
         <v>292</v>
@@ -19240,7 +19240,7 @@
         <v>21</v>
       </c>
       <c r="E487" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F487" s="4" t="s">
         <v>292</v>
@@ -19269,7 +19269,7 @@
         <v>21</v>
       </c>
       <c r="E488" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F488" s="4" t="s">
         <v>520</v>
@@ -19301,7 +19301,7 @@
         <v>21</v>
       </c>
       <c r="E489" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F489" s="4" t="s">
         <v>520</v>
@@ -19333,7 +19333,7 @@
         <v>21</v>
       </c>
       <c r="E490" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F490" s="4" t="s">
         <v>414</v>
@@ -19362,7 +19362,7 @@
         <v>21</v>
       </c>
       <c r="E491" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F491" s="4" t="s">
         <v>414</v>
@@ -19394,7 +19394,7 @@
         <v>58</v>
       </c>
       <c r="F492" s="4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H492" s="4" t="s">
         <v>556</v>
@@ -19922,7 +19922,7 @@
         <v>106</v>
       </c>
       <c r="F507" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G507" s="4" t="s">
         <v>23</v>
@@ -20654,7 +20654,7 @@
         <v>850</v>
       </c>
       <c r="E528" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F528" s="4" t="s">
         <v>284</v>
@@ -20686,7 +20686,7 @@
         <v>850</v>
       </c>
       <c r="E529" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F529" s="4" t="s">
         <v>284</v>
@@ -20852,7 +20852,7 @@
         <v>884</v>
       </c>
       <c r="D10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -20865,7 +20865,7 @@
     </row>
     <row r="12" spans="2:4">
       <c r="D12" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="13" spans="2:4">

--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.7 orgtree position & rank/2.0_mismatch_군및기타_1_outgov_JR.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.7 orgtree position & rank/2.0_mismatch_군및기타_1_outgov_JR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.7 orgtree position &amp; rank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B02767-1A5F-4530-861A-12B9BE9CB39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE88C0FC-8F8D-460D-892E-3F93DB1889C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3356,6 +3356,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -3756,9 +3757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17"/>
@@ -4312,7 +4313,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>895</v>

--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.7 orgtree position & rank/2.0_mismatch_군및기타_1_outgov_JR.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.7 orgtree position & rank/2.0_mismatch_군및기타_1_outgov_JR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.7 orgtree position &amp; rank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE88C0FC-8F8D-460D-892E-3F93DB1889C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7E72F8-BD58-406B-B10A-C3F14F47F1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3757,9 +3757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V530"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17"/>
@@ -4522,7 +4522,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>904</v>
@@ -20781,8 +20781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E5A230-ED84-4272-A9D2-E1A38F1209CE}">
   <dimension ref="B3:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>

--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.7 orgtree position & rank/2.0_mismatch_군및기타_1_outgov_JR.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.7 orgtree position & rank/2.0_mismatch_군및기타_1_outgov_JR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.7 orgtree position &amp; rank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3374BA6-E566-48F4-9ECC-CD6B47691ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7F5E10-FE7F-42F9-A08D-2D86A871BA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3761,9 +3761,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W530"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17"/>
@@ -13446,7 +13446,7 @@
         <v>241</v>
       </c>
       <c r="P310" s="5" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="311" spans="1:19">
@@ -13484,7 +13484,7 @@
         <v>241</v>
       </c>
       <c r="P311" s="5" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="312" spans="1:19">
@@ -13525,7 +13525,7 @@
         <v>241</v>
       </c>
       <c r="P312" s="5" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="313" spans="1:19">
